--- a/xlsx/交通_intext.xlsx
+++ b/xlsx/交通_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Traffic</t>
   </si>
   <si>
-    <t>政策_政策_美國_交通</t>
+    <t>政策_政策_美国_交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%9F%E9%80%9A</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%8199%E8%99%9F%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>卑詩省99號公路</t>
+    <t>卑诗省99号公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%B7%A5%E5%85%B7</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>火車</t>
+    <t>火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E9%81%9E</t>
   </si>
   <si>
-    <t>郵遞</t>
+    <t>邮递</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>電信</t>
+    <t>电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -143,31 +143,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%AB%94%E8%88%B9</t>
   </si>
   <si>
-    <t>雙體船</t>
+    <t>双体船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
+    <t>直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>交通運輸</t>
+    <t>交通运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>中華人民共和國交通</t>
+    <t>中华人民共和国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>中華民國交通</t>
+    <t>中华民国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>

--- a/xlsx/交通_intext.xlsx
+++ b/xlsx/交通_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Traffic</t>
   </si>
   <si>
-    <t>政策_政策_美國_交通</t>
+    <t>体育运动_体育运动_技术_交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%9F%E9%80%9A</t>
